--- a/data_notes.xlsx
+++ b/data_notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\mid-bootcamp-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E73F144-4775-4612-80CE-8C83876BEC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BBA224-B3CD-4B8B-9AD2-9CD2A66BD9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{04A72AE4-7E80-4285-A416-81E196CFBCCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04A72AE4-7E80-4285-A416-81E196CFBCCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>use for model</t>
   </si>
   <si>
-    <t>only if possible to group and encode</t>
-  </si>
-  <si>
     <t>target variable</t>
   </si>
   <si>
@@ -174,13 +171,16 @@
     <t>when doubles are replaced this column can be dropped</t>
   </si>
   <si>
-    <t>not needed</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>boolean</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>group or calculate?</t>
   </si>
 </sst>
 </file>
@@ -267,17 +267,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B9B98F2-F9B4-4872-8629-0998DC1305AC}" name="Table1" displayName="Table1" ref="A1:H22" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B9B98F2-F9B4-4872-8629-0998DC1305AC}" name="Table1" displayName="Table1" ref="A1:H22" totalsRowShown="0" dataDxfId="8">
   <autoFilter ref="A1:H22" xr:uid="{1B9B98F2-F9B4-4872-8629-0998DC1305AC}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1183F66C-F2C9-4097-B45F-673E42D61DBD}" name="column name" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{FCBFDF54-EEF4-4868-895A-ACE158CC92D2}" name="dtype" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{5C918C4B-FDDE-42BB-8FD6-1F9C19526B3C}" name="description" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{75559AB7-CC50-4445-90AE-971F03858907}" name="null values" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{C56A5D7E-2A04-4BA9-B73C-A24EAC4FD3AA}" name="empty values" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6EC18F5F-5CF2-4435-B31C-C44DDCFC7F61}" name="unique values" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{52BCB2C8-D3D3-4983-9484-385ABEC7D316}" name="dtype change?" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{A4EB9879-C085-4D05-9A67-4389C40157DF}" name="use for model" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1183F66C-F2C9-4097-B45F-673E42D61DBD}" name="column name" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{FCBFDF54-EEF4-4868-895A-ACE158CC92D2}" name="dtype" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{5C918C4B-FDDE-42BB-8FD6-1F9C19526B3C}" name="description" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{75559AB7-CC50-4445-90AE-971F03858907}" name="null values" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{C56A5D7E-2A04-4BA9-B73C-A24EAC4FD3AA}" name="empty values" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6EC18F5F-5CF2-4435-B31C-C44DDCFC7F61}" name="unique values" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{52BCB2C8-D3D3-4983-9484-385ABEC7D316}" name="dtype change?" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A4EB9879-C085-4D05-9A67-4389C40157DF}" name="use for model" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -583,7 +583,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +618,7 @@
         <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
         <v>33</v>
@@ -632,7 +632,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
@@ -641,7 +641,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -652,7 +652,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>29</v>
@@ -661,7 +661,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>29</v>
@@ -681,7 +681,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -692,7 +692,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -701,7 +701,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>29</v>
@@ -721,7 +721,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -732,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>29</v>
@@ -741,7 +741,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
@@ -761,7 +761,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>29</v>
@@ -780,10 +780,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
         <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -823,7 +823,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -843,7 +843,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
         <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -919,7 +919,7 @@
         <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>27</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -979,7 +979,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -997,7 +997,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1033,7 +1033,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
